--- a/documents/datadictionary/pca_ehr_datadictionary.xlsx
+++ b/documents/datadictionary/pca_ehr_datadictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a87caf6b30614cd/Documents/ehr-database/datadictionary/idr_data_request/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a87caf6b30614cd/Documents/ehr-preeclampsia-model/documents/datadictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5BB9A3F0E7425F275B1D368BDC80603096091599" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16CA75E-6BB6-421C-AB9E-7993F85029A9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5BB9A3F0E7425F275B1D368BDC80603096091599" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C446A9B-A729-440F-B953-0723B01BC15A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4650" yWindow="165" windowWidth="11880" windowHeight="14910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -6540,17 +6540,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6561,7 +6555,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6578,12 +6584,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6958,13 +6958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:D183"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="137.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -6989,12 +6989,12 @@
       <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
@@ -7085,10 +7085,10 @@
       <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>630</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -7102,8 +7102,8 @@
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="50" t="s">
         <v>1202</v>
       </c>
@@ -7115,8 +7115,8 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="50" t="s">
         <v>1203</v>
       </c>
@@ -7128,8 +7128,8 @@
       <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="50" t="s">
         <v>1204</v>
       </c>
@@ -7334,10 +7334,10 @@
       <c r="B23" s="49" t="s">
         <v>1222</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="62" t="s">
         <v>1223</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="59" t="s">
         <v>1224</v>
       </c>
       <c r="E23" s="48"/>
@@ -7351,8 +7351,8 @@
       <c r="B24" s="49" t="s">
         <v>1225</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -7364,10 +7364,10 @@
       <c r="B25" s="49" t="s">
         <v>1226</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="62" t="s">
         <v>1227</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="59" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="48"/>
@@ -7381,8 +7381,8 @@
       <c r="B26" s="49" t="s">
         <v>1228</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -7394,10 +7394,10 @@
       <c r="B27" s="49" t="s">
         <v>1229</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="62" t="s">
         <v>1230</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="59" t="s">
         <v>1231</v>
       </c>
       <c r="E27" s="48"/>
@@ -7411,8 +7411,8 @@
       <c r="B28" s="49" t="s">
         <v>1232</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -7441,10 +7441,10 @@
       <c r="B30" s="49" t="s">
         <v>1235</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="62" t="s">
         <v>1236</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="59" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="48"/>
@@ -7458,8 +7458,8 @@
       <c r="B31" s="49" t="s">
         <v>1237</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -7556,10 +7556,10 @@
       <c r="B37" s="49" t="s">
         <v>1250</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="62" t="s">
         <v>1251</v>
       </c>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="59" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="48"/>
@@ -7573,8 +7573,8 @@
       <c r="B38" s="49" t="s">
         <v>1252</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -7586,10 +7586,10 @@
       <c r="B39" s="49" t="s">
         <v>1253</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="62" t="s">
         <v>1254</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="59" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="48"/>
@@ -7603,8 +7603,8 @@
       <c r="B40" s="49" t="s">
         <v>1255</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -7616,10 +7616,10 @@
       <c r="B41" s="49" t="s">
         <v>1256</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="62" t="s">
         <v>1257</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="59" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="48"/>
@@ -7633,8 +7633,8 @@
       <c r="B42" s="49" t="s">
         <v>1258</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
@@ -7663,10 +7663,10 @@
       <c r="B44" s="49" t="s">
         <v>1261</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="62" t="s">
         <v>1262</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="48"/>
@@ -7680,8 +7680,8 @@
       <c r="B45" s="49" t="s">
         <v>1263</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
@@ -8201,12 +8201,12 @@
       <c r="G79" s="48"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="56" t="s">
         <v>1184</v>
       </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="48"/>
       <c r="F80" s="48"/>
       <c r="G80" s="48"/>
@@ -8523,10 +8523,10 @@
       <c r="B102" s="49" t="s">
         <v>1349</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="62" t="s">
         <v>1350</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="59" t="s">
         <v>82</v>
       </c>
       <c r="E102" s="48"/>
@@ -8540,8 +8540,8 @@
       <c r="B103" s="49" t="s">
         <v>1351</v>
       </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="61"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
       <c r="G103" s="48"/>
@@ -8553,8 +8553,8 @@
       <c r="B104" s="49" t="s">
         <v>1352</v>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="61"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="60"/>
       <c r="E104" s="48"/>
       <c r="F104" s="48"/>
       <c r="G104" s="48"/>
@@ -8566,8 +8566,8 @@
       <c r="B105" s="49" t="s">
         <v>1353</v>
       </c>
-      <c r="C105" s="55"/>
-      <c r="D105" s="57"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="61"/>
       <c r="E105" s="48"/>
       <c r="F105" s="48"/>
       <c r="G105" s="48"/>
@@ -8616,12 +8616,12 @@
       <c r="G108" s="48"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="56" t="s">
         <v>1185</v>
       </c>
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="60"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="48"/>
       <c r="F109" s="48"/>
       <c r="G109" s="48"/>
@@ -9313,10 +9313,10 @@
       <c r="G155" s="48"/>
     </row>
     <row r="156" spans="1:7" ht="15" thickBot="1">
-      <c r="A156" s="56">
+      <c r="A156" s="59">
         <v>796.5</v>
       </c>
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="59" t="s">
         <v>1434</v>
       </c>
       <c r="C156" s="50" t="s">
@@ -9330,8 +9330,8 @@
       <c r="G156" s="48"/>
     </row>
     <row r="157" spans="1:7" ht="15" thickBot="1">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="50" t="s">
         <v>1436</v>
       </c>
@@ -9343,8 +9343,8 @@
       <c r="G157" s="48"/>
     </row>
     <row r="158" spans="1:7" ht="15" thickBot="1">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="50" t="s">
         <v>1437</v>
       </c>
@@ -9356,8 +9356,8 @@
       <c r="G158" s="48"/>
     </row>
     <row r="159" spans="1:7" ht="15" thickBot="1">
-      <c r="A159" s="61"/>
-      <c r="B159" s="61"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
       <c r="C159" s="50" t="s">
         <v>1438</v>
       </c>
@@ -9369,8 +9369,8 @@
       <c r="G159" s="48"/>
     </row>
     <row r="160" spans="1:7" ht="15" thickBot="1">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="50" t="s">
         <v>1439</v>
       </c>
@@ -9382,8 +9382,8 @@
       <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" ht="15" thickBot="1">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="50" t="s">
         <v>1440</v>
       </c>
@@ -9395,8 +9395,8 @@
       <c r="G161" s="48"/>
     </row>
     <row r="162" spans="1:7" ht="15" thickBot="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="50" t="s">
         <v>1441</v>
       </c>
@@ -9408,8 +9408,8 @@
       <c r="G162" s="48"/>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1">
-      <c r="A163" s="61"/>
-      <c r="B163" s="61"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="50" t="s">
         <v>1442</v>
       </c>
@@ -9421,8 +9421,8 @@
       <c r="G163" s="48"/>
     </row>
     <row r="164" spans="1:7" ht="15" thickBot="1">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="61"/>
       <c r="C164" s="50" t="s">
         <v>1443</v>
       </c>
@@ -9593,27 +9593,27 @@
       <c r="G175" s="48"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A176" s="58" t="s">
+      <c r="A176" s="56" t="s">
         <v>1186</v>
       </c>
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="60"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="58"/>
       <c r="E176" s="48"/>
       <c r="F176" s="48"/>
       <c r="G176" s="48"/>
     </row>
     <row r="177" spans="1:7" ht="15" thickBot="1">
-      <c r="A177" s="67">
+      <c r="A177" s="54">
         <v>651</v>
       </c>
-      <c r="B177" s="67" t="s">
+      <c r="B177" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C177" s="68" t="s">
+      <c r="C177" s="55" t="s">
         <v>1464</v>
       </c>
-      <c r="D177" s="67" t="s">
+      <c r="D177" s="54" t="s">
         <v>150</v>
       </c>
       <c r="E177" s="48"/>
@@ -9621,16 +9621,16 @@
       <c r="G177" s="48"/>
     </row>
     <row r="178" spans="1:7" ht="15" thickBot="1">
-      <c r="A178" s="67">
+      <c r="A178" s="54">
         <v>651</v>
       </c>
-      <c r="B178" s="67" t="s">
+      <c r="B178" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C178" s="68" t="s">
+      <c r="C178" s="55" t="s">
         <v>1465</v>
       </c>
-      <c r="D178" s="67" t="s">
+      <c r="D178" s="54" t="s">
         <v>151</v>
       </c>
       <c r="E178" s="48"/>
@@ -9638,16 +9638,16 @@
       <c r="G178" s="48"/>
     </row>
     <row r="179" spans="1:7" ht="15" thickBot="1">
-      <c r="A179" s="67">
+      <c r="A179" s="54">
         <v>651.1</v>
       </c>
-      <c r="B179" s="67" t="s">
+      <c r="B179" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C179" s="68" t="s">
+      <c r="C179" s="55" t="s">
         <v>1466</v>
       </c>
-      <c r="D179" s="67" t="s">
+      <c r="D179" s="54" t="s">
         <v>152</v>
       </c>
       <c r="E179" s="48"/>
@@ -9655,16 +9655,16 @@
       <c r="G179" s="48"/>
     </row>
     <row r="180" spans="1:7" ht="15" thickBot="1">
-      <c r="A180" s="67">
+      <c r="A180" s="54">
         <v>651.20000000000005</v>
       </c>
-      <c r="B180" s="67" t="s">
+      <c r="B180" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C180" s="68" t="s">
+      <c r="C180" s="55" t="s">
         <v>1467</v>
       </c>
-      <c r="D180" s="67" t="s">
+      <c r="D180" s="54" t="s">
         <v>153</v>
       </c>
       <c r="E180" s="48"/>
@@ -9672,16 +9672,16 @@
       <c r="G180" s="48"/>
     </row>
     <row r="181" spans="1:7" ht="15" thickBot="1">
-      <c r="A181" s="67">
+      <c r="A181" s="54">
         <v>651.79999999999995</v>
       </c>
-      <c r="B181" s="67" t="s">
+      <c r="B181" s="54" t="s">
         <v>1468</v>
       </c>
-      <c r="C181" s="68" t="s">
+      <c r="C181" s="55" t="s">
         <v>1469</v>
       </c>
-      <c r="D181" s="67" t="s">
+      <c r="D181" s="54" t="s">
         <v>154</v>
       </c>
       <c r="E181" s="48"/>
@@ -9689,16 +9689,16 @@
       <c r="G181" s="48"/>
     </row>
     <row r="182" spans="1:7" ht="29.25" thickBot="1">
-      <c r="A182" s="67">
+      <c r="A182" s="54">
         <v>651.79999999999995</v>
       </c>
-      <c r="B182" s="67" t="s">
+      <c r="B182" s="54" t="s">
         <v>1470</v>
       </c>
-      <c r="C182" s="68" t="s">
+      <c r="C182" s="55" t="s">
         <v>1471</v>
       </c>
-      <c r="D182" s="67" t="s">
+      <c r="D182" s="54" t="s">
         <v>155</v>
       </c>
       <c r="E182" s="48"/>
@@ -9706,16 +9706,16 @@
       <c r="G182" s="48"/>
     </row>
     <row r="183" spans="1:7" ht="29.25" thickBot="1">
-      <c r="A183" s="67">
+      <c r="A183" s="54">
         <v>651.83000000000004</v>
       </c>
-      <c r="B183" s="67" t="s">
+      <c r="B183" s="54" t="s">
         <v>1472</v>
       </c>
-      <c r="C183" s="68" t="s">
+      <c r="C183" s="55" t="s">
         <v>1473</v>
       </c>
-      <c r="D183" s="67" t="s">
+      <c r="D183" s="54" t="s">
         <v>156</v>
       </c>
       <c r="E183" s="48"/>
@@ -9968,10 +9968,10 @@
       <c r="B199" s="49" t="s">
         <v>1504</v>
       </c>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="62" t="s">
         <v>1505</v>
       </c>
-      <c r="D199" s="56" t="s">
+      <c r="D199" s="59" t="s">
         <v>172</v>
       </c>
       <c r="E199" s="48"/>
@@ -9985,8 +9985,8 @@
       <c r="B200" s="49" t="s">
         <v>1506</v>
       </c>
-      <c r="C200" s="62"/>
-      <c r="D200" s="61"/>
+      <c r="C200" s="64"/>
+      <c r="D200" s="60"/>
       <c r="E200" s="48"/>
       <c r="F200" s="48"/>
       <c r="G200" s="48"/>
@@ -9998,8 +9998,8 @@
       <c r="B201" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="C201" s="55"/>
-      <c r="D201" s="57"/>
+      <c r="C201" s="63"/>
+      <c r="D201" s="61"/>
       <c r="E201" s="48"/>
       <c r="F201" s="48"/>
       <c r="G201" s="48"/>
@@ -10011,10 +10011,10 @@
       <c r="B202" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="C202" s="54" t="s">
+      <c r="C202" s="62" t="s">
         <v>1509</v>
       </c>
-      <c r="D202" s="56" t="s">
+      <c r="D202" s="59" t="s">
         <v>173</v>
       </c>
       <c r="E202" s="48"/>
@@ -10028,8 +10028,8 @@
       <c r="B203" s="49" t="s">
         <v>1510</v>
       </c>
-      <c r="C203" s="55"/>
-      <c r="D203" s="57"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="61"/>
       <c r="E203" s="48"/>
       <c r="F203" s="48"/>
       <c r="G203" s="48"/>
@@ -10041,10 +10041,10 @@
       <c r="B204" s="49" t="s">
         <v>1511</v>
       </c>
-      <c r="C204" s="54" t="s">
+      <c r="C204" s="62" t="s">
         <v>1512</v>
       </c>
-      <c r="D204" s="56" t="s">
+      <c r="D204" s="59" t="s">
         <v>174</v>
       </c>
       <c r="E204" s="48"/>
@@ -10058,8 +10058,8 @@
       <c r="B205" s="49" t="s">
         <v>1513</v>
       </c>
-      <c r="C205" s="55"/>
-      <c r="D205" s="57"/>
+      <c r="C205" s="63"/>
+      <c r="D205" s="61"/>
       <c r="E205" s="48"/>
       <c r="F205" s="48"/>
       <c r="G205" s="48"/>
@@ -10131,10 +10131,10 @@
       <c r="B210" s="49" t="s">
         <v>1520</v>
       </c>
-      <c r="C210" s="54" t="s">
+      <c r="C210" s="62" t="s">
         <v>1521</v>
       </c>
-      <c r="D210" s="56" t="s">
+      <c r="D210" s="59" t="s">
         <v>179</v>
       </c>
       <c r="E210" s="48"/>
@@ -10148,8 +10148,8 @@
       <c r="B211" s="49" t="s">
         <v>1522</v>
       </c>
-      <c r="C211" s="55"/>
-      <c r="D211" s="57"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="61"/>
       <c r="E211" s="48"/>
       <c r="F211" s="48"/>
       <c r="G211" s="48"/>
@@ -10161,10 +10161,10 @@
       <c r="B212" s="49" t="s">
         <v>1523</v>
       </c>
-      <c r="C212" s="54" t="s">
+      <c r="C212" s="62" t="s">
         <v>1524</v>
       </c>
-      <c r="D212" s="56" t="s">
+      <c r="D212" s="59" t="s">
         <v>180</v>
       </c>
       <c r="E212" s="48"/>
@@ -10178,8 +10178,8 @@
       <c r="B213" s="49" t="s">
         <v>1525</v>
       </c>
-      <c r="C213" s="55"/>
-      <c r="D213" s="57"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="61"/>
       <c r="E213" s="48"/>
       <c r="F213" s="48"/>
       <c r="G213" s="48"/>
@@ -10191,10 +10191,10 @@
       <c r="B214" s="49" t="s">
         <v>1526</v>
       </c>
-      <c r="C214" s="54" t="s">
+      <c r="C214" s="62" t="s">
         <v>1527</v>
       </c>
-      <c r="D214" s="56" t="s">
+      <c r="D214" s="59" t="s">
         <v>181</v>
       </c>
       <c r="E214" s="48"/>
@@ -10208,8 +10208,8 @@
       <c r="B215" s="49" t="s">
         <v>1528</v>
       </c>
-      <c r="C215" s="55"/>
-      <c r="D215" s="57"/>
+      <c r="C215" s="63"/>
+      <c r="D215" s="61"/>
       <c r="E215" s="48"/>
       <c r="F215" s="48"/>
       <c r="G215" s="48"/>
@@ -11226,12 +11226,12 @@
       <c r="G282" s="48"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A283" s="58" t="s">
+      <c r="A283" s="56" t="s">
         <v>1187</v>
       </c>
-      <c r="B283" s="59"/>
-      <c r="C283" s="59"/>
-      <c r="D283" s="60"/>
+      <c r="B283" s="57"/>
+      <c r="C283" s="57"/>
+      <c r="D283" s="58"/>
       <c r="E283" s="48"/>
       <c r="F283" s="48"/>
       <c r="G283" s="48"/>
@@ -11297,10 +11297,10 @@
       <c r="G287" s="48"/>
     </row>
     <row r="288" spans="1:7" ht="15" thickBot="1">
-      <c r="A288" s="56">
+      <c r="A288" s="59">
         <v>659.11</v>
       </c>
-      <c r="B288" s="56" t="s">
+      <c r="B288" s="59" t="s">
         <v>1643</v>
       </c>
       <c r="C288" s="50" t="s">
@@ -11314,8 +11314,8 @@
       <c r="G288" s="48"/>
     </row>
     <row r="289" spans="1:7" ht="15" thickBot="1">
-      <c r="A289" s="57"/>
-      <c r="B289" s="57"/>
+      <c r="A289" s="61"/>
+      <c r="B289" s="61"/>
       <c r="C289" s="50" t="s">
         <v>1648</v>
       </c>
@@ -11425,10 +11425,10 @@
       <c r="G295" s="48"/>
     </row>
     <row r="296" spans="1:7" ht="15" thickBot="1">
-      <c r="A296" s="56">
+      <c r="A296" s="59">
         <v>661.91</v>
       </c>
-      <c r="B296" s="56" t="s">
+      <c r="B296" s="59" t="s">
         <v>1660</v>
       </c>
       <c r="C296" s="50" t="s">
@@ -11442,8 +11442,8 @@
       <c r="G296" s="48"/>
     </row>
     <row r="297" spans="1:7" ht="15" thickBot="1">
-      <c r="A297" s="57"/>
-      <c r="B297" s="57"/>
+      <c r="A297" s="61"/>
+      <c r="B297" s="61"/>
       <c r="C297" s="50" t="s">
         <v>1662</v>
       </c>
@@ -11743,10 +11743,10 @@
       <c r="B316" s="49" t="s">
         <v>1692</v>
       </c>
-      <c r="C316" s="54" t="s">
+      <c r="C316" s="62" t="s">
         <v>1693</v>
       </c>
-      <c r="D316" s="56" t="s">
+      <c r="D316" s="59" t="s">
         <v>275</v>
       </c>
       <c r="E316" s="48"/>
@@ -11760,8 +11760,8 @@
       <c r="B317" s="49" t="s">
         <v>1694</v>
       </c>
-      <c r="C317" s="55"/>
-      <c r="D317" s="57"/>
+      <c r="C317" s="63"/>
+      <c r="D317" s="61"/>
       <c r="E317" s="48"/>
       <c r="F317" s="48"/>
       <c r="G317" s="48"/>
@@ -11803,10 +11803,10 @@
       <c r="B320" s="49" t="s">
         <v>1697</v>
       </c>
-      <c r="C320" s="54" t="s">
+      <c r="C320" s="62" t="s">
         <v>1698</v>
       </c>
-      <c r="D320" s="56" t="s">
+      <c r="D320" s="59" t="s">
         <v>278</v>
       </c>
       <c r="E320" s="48"/>
@@ -11820,8 +11820,8 @@
       <c r="B321" s="49" t="s">
         <v>1699</v>
       </c>
-      <c r="C321" s="55"/>
-      <c r="D321" s="57"/>
+      <c r="C321" s="63"/>
+      <c r="D321" s="61"/>
       <c r="E321" s="48"/>
       <c r="F321" s="48"/>
       <c r="G321" s="48"/>
@@ -11931,10 +11931,10 @@
       <c r="B328" s="49" t="s">
         <v>1713</v>
       </c>
-      <c r="C328" s="54" t="s">
+      <c r="C328" s="62" t="s">
         <v>1714</v>
       </c>
-      <c r="D328" s="56" t="s">
+      <c r="D328" s="59" t="s">
         <v>282</v>
       </c>
       <c r="E328" s="48"/>
@@ -11948,8 +11948,8 @@
       <c r="B329" s="49" t="s">
         <v>1715</v>
       </c>
-      <c r="C329" s="55"/>
-      <c r="D329" s="57"/>
+      <c r="C329" s="63"/>
+      <c r="D329" s="61"/>
       <c r="E329" s="48"/>
       <c r="F329" s="48"/>
       <c r="G329" s="48"/>
@@ -12205,10 +12205,10 @@
       <c r="B346" s="49" t="s">
         <v>1753</v>
       </c>
-      <c r="C346" s="54" t="s">
+      <c r="C346" s="62" t="s">
         <v>1754</v>
       </c>
-      <c r="D346" s="56" t="s">
+      <c r="D346" s="59" t="s">
         <v>1755</v>
       </c>
       <c r="E346" s="48"/>
@@ -12222,8 +12222,8 @@
       <c r="B347" s="49" t="s">
         <v>1756</v>
       </c>
-      <c r="C347" s="55"/>
-      <c r="D347" s="57"/>
+      <c r="C347" s="63"/>
+      <c r="D347" s="61"/>
       <c r="E347" s="48"/>
       <c r="F347" s="48"/>
       <c r="G347" s="48"/>
@@ -12235,10 +12235,10 @@
       <c r="B348" s="49" t="s">
         <v>1757</v>
       </c>
-      <c r="C348" s="54" t="s">
+      <c r="C348" s="62" t="s">
         <v>1758</v>
       </c>
-      <c r="D348" s="54" t="s">
+      <c r="D348" s="62" t="s">
         <v>293</v>
       </c>
       <c r="E348" s="48"/>
@@ -12252,8 +12252,8 @@
       <c r="B349" s="49" t="s">
         <v>1759</v>
       </c>
-      <c r="C349" s="55"/>
-      <c r="D349" s="55"/>
+      <c r="C349" s="63"/>
+      <c r="D349" s="63"/>
       <c r="E349" s="48"/>
       <c r="F349" s="48"/>
       <c r="G349" s="48"/>
@@ -12265,10 +12265,10 @@
       <c r="B350" s="49" t="s">
         <v>1760</v>
       </c>
-      <c r="C350" s="54" t="s">
+      <c r="C350" s="62" t="s">
         <v>1761</v>
       </c>
-      <c r="D350" s="54" t="s">
+      <c r="D350" s="62" t="s">
         <v>294</v>
       </c>
       <c r="E350" s="48"/>
@@ -12282,8 +12282,8 @@
       <c r="B351" s="49" t="s">
         <v>1762</v>
       </c>
-      <c r="C351" s="55"/>
-      <c r="D351" s="55"/>
+      <c r="C351" s="63"/>
+      <c r="D351" s="63"/>
       <c r="E351" s="48"/>
       <c r="F351" s="48"/>
       <c r="G351" s="48"/>
@@ -12295,10 +12295,10 @@
       <c r="B352" s="49" t="s">
         <v>1763</v>
       </c>
-      <c r="C352" s="54" t="s">
+      <c r="C352" s="62" t="s">
         <v>1764</v>
       </c>
-      <c r="D352" s="54" t="s">
+      <c r="D352" s="62" t="s">
         <v>295</v>
       </c>
       <c r="E352" s="48"/>
@@ -12312,8 +12312,8 @@
       <c r="B353" s="49" t="s">
         <v>1765</v>
       </c>
-      <c r="C353" s="55"/>
-      <c r="D353" s="55"/>
+      <c r="C353" s="63"/>
+      <c r="D353" s="63"/>
       <c r="E353" s="48"/>
       <c r="F353" s="48"/>
       <c r="G353" s="48"/>
@@ -12325,10 +12325,10 @@
       <c r="B354" s="49" t="s">
         <v>1766</v>
       </c>
-      <c r="C354" s="54" t="s">
+      <c r="C354" s="62" t="s">
         <v>1767</v>
       </c>
-      <c r="D354" s="54" t="s">
+      <c r="D354" s="62" t="s">
         <v>296</v>
       </c>
       <c r="E354" s="48"/>
@@ -12342,8 +12342,8 @@
       <c r="B355" s="49" t="s">
         <v>1768</v>
       </c>
-      <c r="C355" s="55"/>
-      <c r="D355" s="55"/>
+      <c r="C355" s="63"/>
+      <c r="D355" s="63"/>
       <c r="E355" s="48"/>
       <c r="F355" s="48"/>
       <c r="G355" s="48"/>
@@ -12398,10 +12398,10 @@
       <c r="B359" s="49" t="s">
         <v>1774</v>
       </c>
-      <c r="C359" s="54" t="s">
+      <c r="C359" s="62" t="s">
         <v>1775</v>
       </c>
-      <c r="D359" s="54" t="s">
+      <c r="D359" s="62" t="s">
         <v>299</v>
       </c>
       <c r="E359" s="48"/>
@@ -12415,8 +12415,8 @@
       <c r="B360" s="49" t="s">
         <v>1776</v>
       </c>
-      <c r="C360" s="55"/>
-      <c r="D360" s="55"/>
+      <c r="C360" s="63"/>
+      <c r="D360" s="63"/>
       <c r="E360" s="48"/>
       <c r="F360" s="48"/>
       <c r="G360" s="48"/>
@@ -12428,10 +12428,10 @@
       <c r="B361" s="49" t="s">
         <v>1777</v>
       </c>
-      <c r="C361" s="54" t="s">
+      <c r="C361" s="62" t="s">
         <v>1778</v>
       </c>
-      <c r="D361" s="54" t="s">
+      <c r="D361" s="62" t="s">
         <v>300</v>
       </c>
       <c r="E361" s="48"/>
@@ -12445,8 +12445,8 @@
       <c r="B362" s="49" t="s">
         <v>1779</v>
       </c>
-      <c r="C362" s="55"/>
-      <c r="D362" s="55"/>
+      <c r="C362" s="63"/>
+      <c r="D362" s="63"/>
       <c r="E362" s="48"/>
       <c r="F362" s="48"/>
       <c r="G362" s="48"/>
@@ -12458,10 +12458,10 @@
       <c r="B363" s="49" t="s">
         <v>1780</v>
       </c>
-      <c r="C363" s="54" t="s">
+      <c r="C363" s="62" t="s">
         <v>1781</v>
       </c>
-      <c r="D363" s="54" t="s">
+      <c r="D363" s="62" t="s">
         <v>301</v>
       </c>
       <c r="E363" s="48"/>
@@ -12475,8 +12475,8 @@
       <c r="B364" s="49" t="s">
         <v>1782</v>
       </c>
-      <c r="C364" s="55"/>
-      <c r="D364" s="55"/>
+      <c r="C364" s="63"/>
+      <c r="D364" s="63"/>
       <c r="E364" s="48"/>
       <c r="F364" s="48"/>
       <c r="G364" s="48"/>
@@ -12488,10 +12488,10 @@
       <c r="B365" s="49" t="s">
         <v>1783</v>
       </c>
-      <c r="C365" s="54" t="s">
+      <c r="C365" s="62" t="s">
         <v>1784</v>
       </c>
-      <c r="D365" s="54" t="s">
+      <c r="D365" s="62" t="s">
         <v>302</v>
       </c>
       <c r="E365" s="48"/>
@@ -12505,8 +12505,8 @@
       <c r="B366" s="49" t="s">
         <v>1785</v>
       </c>
-      <c r="C366" s="55"/>
-      <c r="D366" s="55"/>
+      <c r="C366" s="63"/>
+      <c r="D366" s="63"/>
       <c r="E366" s="48"/>
       <c r="F366" s="48"/>
       <c r="G366" s="48"/>
@@ -12518,10 +12518,10 @@
       <c r="B367" s="49" t="s">
         <v>1786</v>
       </c>
-      <c r="C367" s="54" t="s">
+      <c r="C367" s="62" t="s">
         <v>1787</v>
       </c>
-      <c r="D367" s="54" t="s">
+      <c r="D367" s="62" t="s">
         <v>303</v>
       </c>
       <c r="E367" s="48"/>
@@ -12535,8 +12535,8 @@
       <c r="B368" s="49" t="s">
         <v>1788</v>
       </c>
-      <c r="C368" s="55"/>
-      <c r="D368" s="55"/>
+      <c r="C368" s="63"/>
+      <c r="D368" s="63"/>
       <c r="E368" s="48"/>
       <c r="F368" s="48"/>
       <c r="G368" s="48"/>
@@ -12548,10 +12548,10 @@
       <c r="B369" s="49" t="s">
         <v>1789</v>
       </c>
-      <c r="C369" s="54" t="s">
+      <c r="C369" s="62" t="s">
         <v>1790</v>
       </c>
-      <c r="D369" s="56" t="s">
+      <c r="D369" s="59" t="s">
         <v>304</v>
       </c>
       <c r="E369" s="48"/>
@@ -12565,8 +12565,8 @@
       <c r="B370" s="49" t="s">
         <v>1791</v>
       </c>
-      <c r="C370" s="62"/>
-      <c r="D370" s="61"/>
+      <c r="C370" s="64"/>
+      <c r="D370" s="60"/>
       <c r="E370" s="48"/>
       <c r="F370" s="48"/>
       <c r="G370" s="48"/>
@@ -12578,8 +12578,8 @@
       <c r="B371" s="49" t="s">
         <v>1792</v>
       </c>
-      <c r="C371" s="62"/>
-      <c r="D371" s="61"/>
+      <c r="C371" s="64"/>
+      <c r="D371" s="60"/>
       <c r="E371" s="48"/>
       <c r="F371" s="48"/>
       <c r="G371" s="48"/>
@@ -12591,8 +12591,8 @@
       <c r="B372" s="49" t="s">
         <v>1793</v>
       </c>
-      <c r="C372" s="62"/>
-      <c r="D372" s="61"/>
+      <c r="C372" s="64"/>
+      <c r="D372" s="60"/>
       <c r="E372" s="48"/>
       <c r="F372" s="48"/>
       <c r="G372" s="48"/>
@@ -12604,8 +12604,8 @@
       <c r="B373" s="49" t="s">
         <v>1794</v>
       </c>
-      <c r="C373" s="55"/>
-      <c r="D373" s="57"/>
+      <c r="C373" s="63"/>
+      <c r="D373" s="61"/>
       <c r="E373" s="48"/>
       <c r="F373" s="48"/>
       <c r="G373" s="48"/>
@@ -12630,10 +12630,10 @@
       <c r="B375" s="49" t="s">
         <v>1796</v>
       </c>
-      <c r="C375" s="54" t="s">
+      <c r="C375" s="62" t="s">
         <v>1797</v>
       </c>
-      <c r="D375" s="56" t="s">
+      <c r="D375" s="59" t="s">
         <v>306</v>
       </c>
       <c r="E375" s="48"/>
@@ -12647,8 +12647,8 @@
       <c r="B376" s="49" t="s">
         <v>1798</v>
       </c>
-      <c r="C376" s="62"/>
-      <c r="D376" s="61"/>
+      <c r="C376" s="64"/>
+      <c r="D376" s="60"/>
       <c r="E376" s="48"/>
       <c r="F376" s="48"/>
       <c r="G376" s="48"/>
@@ -12660,8 +12660,8 @@
       <c r="B377" s="49" t="s">
         <v>1799</v>
       </c>
-      <c r="C377" s="55"/>
-      <c r="D377" s="57"/>
+      <c r="C377" s="63"/>
+      <c r="D377" s="61"/>
       <c r="E377" s="48"/>
       <c r="F377" s="48"/>
       <c r="G377" s="48"/>
@@ -12686,10 +12686,10 @@
       <c r="B379" s="49" t="s">
         <v>1801</v>
       </c>
-      <c r="C379" s="54" t="s">
+      <c r="C379" s="62" t="s">
         <v>1802</v>
       </c>
-      <c r="D379" s="56" t="s">
+      <c r="D379" s="59" t="s">
         <v>308</v>
       </c>
       <c r="E379" s="48"/>
@@ -12703,8 +12703,8 @@
       <c r="B380" s="49" t="s">
         <v>1803</v>
       </c>
-      <c r="C380" s="55"/>
-      <c r="D380" s="57"/>
+      <c r="C380" s="63"/>
+      <c r="D380" s="61"/>
       <c r="E380" s="48"/>
       <c r="F380" s="48"/>
       <c r="G380" s="48"/>
@@ -12716,10 +12716,10 @@
       <c r="B381" s="49" t="s">
         <v>1804</v>
       </c>
-      <c r="C381" s="54" t="s">
+      <c r="C381" s="62" t="s">
         <v>1805</v>
       </c>
-      <c r="D381" s="54" t="s">
+      <c r="D381" s="62" t="s">
         <v>309</v>
       </c>
       <c r="E381" s="48"/>
@@ -12733,8 +12733,8 @@
       <c r="B382" s="49" t="s">
         <v>1806</v>
       </c>
-      <c r="C382" s="55"/>
-      <c r="D382" s="55"/>
+      <c r="C382" s="63"/>
+      <c r="D382" s="63"/>
       <c r="E382" s="48"/>
       <c r="F382" s="48"/>
       <c r="G382" s="48"/>
@@ -12746,10 +12746,10 @@
       <c r="B383" s="49" t="s">
         <v>1807</v>
       </c>
-      <c r="C383" s="54" t="s">
+      <c r="C383" s="62" t="s">
         <v>1808</v>
       </c>
-      <c r="D383" s="54" t="s">
+      <c r="D383" s="62" t="s">
         <v>310</v>
       </c>
       <c r="E383" s="48"/>
@@ -12763,8 +12763,8 @@
       <c r="B384" s="49" t="s">
         <v>1809</v>
       </c>
-      <c r="C384" s="55"/>
-      <c r="D384" s="55"/>
+      <c r="C384" s="63"/>
+      <c r="D384" s="63"/>
       <c r="E384" s="48"/>
       <c r="F384" s="48"/>
       <c r="G384" s="48"/>
@@ -12776,10 +12776,10 @@
       <c r="B385" s="49" t="s">
         <v>1810</v>
       </c>
-      <c r="C385" s="54" t="s">
+      <c r="C385" s="62" t="s">
         <v>1811</v>
       </c>
-      <c r="D385" s="54" t="s">
+      <c r="D385" s="62" t="s">
         <v>311</v>
       </c>
       <c r="E385" s="48"/>
@@ -12793,8 +12793,8 @@
       <c r="B386" s="49" t="s">
         <v>1812</v>
       </c>
-      <c r="C386" s="55"/>
-      <c r="D386" s="55"/>
+      <c r="C386" s="63"/>
+      <c r="D386" s="63"/>
       <c r="E386" s="48"/>
       <c r="F386" s="48"/>
       <c r="G386" s="48"/>
@@ -12819,10 +12819,10 @@
       <c r="B388" s="49" t="s">
         <v>1815</v>
       </c>
-      <c r="C388" s="54" t="s">
+      <c r="C388" s="62" t="s">
         <v>1816</v>
       </c>
-      <c r="D388" s="56" t="s">
+      <c r="D388" s="59" t="s">
         <v>312</v>
       </c>
       <c r="E388" s="48"/>
@@ -12836,8 +12836,8 @@
       <c r="B389" s="49" t="s">
         <v>1817</v>
       </c>
-      <c r="C389" s="62"/>
-      <c r="D389" s="61"/>
+      <c r="C389" s="64"/>
+      <c r="D389" s="60"/>
       <c r="E389" s="48"/>
       <c r="F389" s="48"/>
       <c r="G389" s="48"/>
@@ -12849,8 +12849,8 @@
       <c r="B390" s="49" t="s">
         <v>1818</v>
       </c>
-      <c r="C390" s="55"/>
-      <c r="D390" s="57"/>
+      <c r="C390" s="63"/>
+      <c r="D390" s="61"/>
       <c r="E390" s="48"/>
       <c r="F390" s="48"/>
       <c r="G390" s="48"/>
@@ -12862,10 +12862,10 @@
       <c r="B391" s="49" t="s">
         <v>1819</v>
       </c>
-      <c r="C391" s="56" t="s">
+      <c r="C391" s="59" t="s">
         <v>1820</v>
       </c>
-      <c r="D391" s="56" t="s">
+      <c r="D391" s="59" t="s">
         <v>1821</v>
       </c>
       <c r="E391" s="48"/>
@@ -12879,8 +12879,8 @@
       <c r="B392" s="49" t="s">
         <v>1822</v>
       </c>
-      <c r="C392" s="61"/>
-      <c r="D392" s="61"/>
+      <c r="C392" s="60"/>
+      <c r="D392" s="60"/>
       <c r="E392" s="48"/>
       <c r="F392" s="48"/>
       <c r="G392" s="48"/>
@@ -12892,8 +12892,8 @@
       <c r="B393" s="49" t="s">
         <v>1823</v>
       </c>
-      <c r="C393" s="57"/>
-      <c r="D393" s="57"/>
+      <c r="C393" s="61"/>
+      <c r="D393" s="61"/>
       <c r="E393" s="48"/>
       <c r="F393" s="48"/>
       <c r="G393" s="48"/>
@@ -12918,10 +12918,10 @@
       <c r="B395" s="49" t="s">
         <v>1825</v>
       </c>
-      <c r="C395" s="54" t="s">
+      <c r="C395" s="62" t="s">
         <v>1826</v>
       </c>
-      <c r="D395" s="56" t="s">
+      <c r="D395" s="59" t="s">
         <v>314</v>
       </c>
       <c r="E395" s="48"/>
@@ -12935,8 +12935,8 @@
       <c r="B396" s="49" t="s">
         <v>1827</v>
       </c>
-      <c r="C396" s="55"/>
-      <c r="D396" s="57"/>
+      <c r="C396" s="63"/>
+      <c r="D396" s="61"/>
       <c r="E396" s="48"/>
       <c r="F396" s="48"/>
       <c r="G396" s="48"/>
@@ -12948,10 +12948,10 @@
       <c r="B397" s="49" t="s">
         <v>1825</v>
       </c>
-      <c r="C397" s="54" t="s">
+      <c r="C397" s="62" t="s">
         <v>1828</v>
       </c>
-      <c r="D397" s="54" t="s">
+      <c r="D397" s="62" t="s">
         <v>315</v>
       </c>
       <c r="E397" s="48"/>
@@ -12965,8 +12965,8 @@
       <c r="B398" s="49" t="s">
         <v>1827</v>
       </c>
-      <c r="C398" s="55"/>
-      <c r="D398" s="55"/>
+      <c r="C398" s="63"/>
+      <c r="D398" s="63"/>
       <c r="E398" s="48"/>
       <c r="F398" s="48"/>
       <c r="G398" s="48"/>
@@ -12978,10 +12978,10 @@
       <c r="B399" s="49" t="s">
         <v>1829</v>
       </c>
-      <c r="C399" s="54" t="s">
+      <c r="C399" s="62" t="s">
         <v>1830</v>
       </c>
-      <c r="D399" s="54" t="s">
+      <c r="D399" s="62" t="s">
         <v>316</v>
       </c>
       <c r="E399" s="48"/>
@@ -12995,8 +12995,8 @@
       <c r="B400" s="49" t="s">
         <v>1831</v>
       </c>
-      <c r="C400" s="55"/>
-      <c r="D400" s="55"/>
+      <c r="C400" s="63"/>
+      <c r="D400" s="63"/>
       <c r="E400" s="48"/>
       <c r="F400" s="48"/>
       <c r="G400" s="48"/>
@@ -13008,10 +13008,10 @@
       <c r="B401" s="49" t="s">
         <v>1832</v>
       </c>
-      <c r="C401" s="54" t="s">
+      <c r="C401" s="62" t="s">
         <v>1833</v>
       </c>
-      <c r="D401" s="54" t="s">
+      <c r="D401" s="62" t="s">
         <v>317</v>
       </c>
       <c r="E401" s="48"/>
@@ -13025,8 +13025,8 @@
       <c r="B402" s="49" t="s">
         <v>1834</v>
       </c>
-      <c r="C402" s="55"/>
-      <c r="D402" s="55"/>
+      <c r="C402" s="63"/>
+      <c r="D402" s="63"/>
       <c r="E402" s="48"/>
       <c r="F402" s="48"/>
       <c r="G402" s="48"/>
@@ -13038,10 +13038,10 @@
       <c r="B403" s="49" t="s">
         <v>1835</v>
       </c>
-      <c r="C403" s="54" t="s">
+      <c r="C403" s="62" t="s">
         <v>1836</v>
       </c>
-      <c r="D403" s="54" t="s">
+      <c r="D403" s="62" t="s">
         <v>1837</v>
       </c>
       <c r="E403" s="48"/>
@@ -13055,8 +13055,8 @@
       <c r="B404" s="49" t="s">
         <v>1838</v>
       </c>
-      <c r="C404" s="55"/>
-      <c r="D404" s="55"/>
+      <c r="C404" s="63"/>
+      <c r="D404" s="63"/>
       <c r="E404" s="48"/>
       <c r="F404" s="48"/>
       <c r="G404" s="48"/>
@@ -13068,10 +13068,10 @@
       <c r="B405" s="49" t="s">
         <v>1835</v>
       </c>
-      <c r="C405" s="54" t="s">
+      <c r="C405" s="62" t="s">
         <v>1839</v>
       </c>
-      <c r="D405" s="54" t="s">
+      <c r="D405" s="62" t="s">
         <v>318</v>
       </c>
       <c r="E405" s="48"/>
@@ -13085,8 +13085,8 @@
       <c r="B406" s="49" t="s">
         <v>1838</v>
       </c>
-      <c r="C406" s="55"/>
-      <c r="D406" s="55"/>
+      <c r="C406" s="63"/>
+      <c r="D406" s="63"/>
       <c r="E406" s="48"/>
       <c r="F406" s="48"/>
       <c r="G406" s="48"/>
@@ -13098,10 +13098,10 @@
       <c r="B407" s="49" t="s">
         <v>1835</v>
       </c>
-      <c r="C407" s="54" t="s">
+      <c r="C407" s="62" t="s">
         <v>1840</v>
       </c>
-      <c r="D407" s="54" t="s">
+      <c r="D407" s="62" t="s">
         <v>319</v>
       </c>
       <c r="E407" s="48"/>
@@ -13115,8 +13115,8 @@
       <c r="B408" s="49" t="s">
         <v>1838</v>
       </c>
-      <c r="C408" s="55"/>
-      <c r="D408" s="55"/>
+      <c r="C408" s="63"/>
+      <c r="D408" s="63"/>
       <c r="E408" s="48"/>
       <c r="F408" s="48"/>
       <c r="G408" s="48"/>
@@ -13128,10 +13128,10 @@
       <c r="B409" s="49" t="s">
         <v>1835</v>
       </c>
-      <c r="C409" s="54" t="s">
+      <c r="C409" s="62" t="s">
         <v>1841</v>
       </c>
-      <c r="D409" s="54" t="s">
+      <c r="D409" s="62" t="s">
         <v>320</v>
       </c>
       <c r="E409" s="48"/>
@@ -13145,8 +13145,8 @@
       <c r="B410" s="49" t="s">
         <v>1838</v>
       </c>
-      <c r="C410" s="55"/>
-      <c r="D410" s="55"/>
+      <c r="C410" s="63"/>
+      <c r="D410" s="63"/>
       <c r="E410" s="48"/>
       <c r="F410" s="48"/>
       <c r="G410" s="48"/>
@@ -13158,10 +13158,10 @@
       <c r="B411" s="49" t="s">
         <v>1835</v>
       </c>
-      <c r="C411" s="54" t="s">
+      <c r="C411" s="62" t="s">
         <v>1842</v>
       </c>
-      <c r="D411" s="54" t="s">
+      <c r="D411" s="62" t="s">
         <v>321</v>
       </c>
       <c r="E411" s="48"/>
@@ -13175,8 +13175,8 @@
       <c r="B412" s="49" t="s">
         <v>1838</v>
       </c>
-      <c r="C412" s="55"/>
-      <c r="D412" s="55"/>
+      <c r="C412" s="63"/>
+      <c r="D412" s="63"/>
       <c r="E412" s="48"/>
       <c r="F412" s="48"/>
       <c r="G412" s="48"/>
@@ -13188,10 +13188,10 @@
       <c r="B413" s="49" t="s">
         <v>1843</v>
       </c>
-      <c r="C413" s="54" t="s">
+      <c r="C413" s="62" t="s">
         <v>1844</v>
       </c>
-      <c r="D413" s="54" t="s">
+      <c r="D413" s="62" t="s">
         <v>322</v>
       </c>
       <c r="E413" s="48"/>
@@ -13205,8 +13205,8 @@
       <c r="B414" s="49" t="s">
         <v>1845</v>
       </c>
-      <c r="C414" s="55"/>
-      <c r="D414" s="55"/>
+      <c r="C414" s="63"/>
+      <c r="D414" s="63"/>
       <c r="E414" s="48"/>
       <c r="F414" s="48"/>
       <c r="G414" s="48"/>
@@ -13231,10 +13231,10 @@
       <c r="B416" s="49" t="s">
         <v>1847</v>
       </c>
-      <c r="C416" s="54" t="s">
+      <c r="C416" s="62" t="s">
         <v>1848</v>
       </c>
-      <c r="D416" s="54" t="s">
+      <c r="D416" s="62" t="s">
         <v>324</v>
       </c>
       <c r="E416" s="48"/>
@@ -13248,8 +13248,8 @@
       <c r="B417" s="49" t="s">
         <v>1849</v>
       </c>
-      <c r="C417" s="62"/>
-      <c r="D417" s="62"/>
+      <c r="C417" s="64"/>
+      <c r="D417" s="64"/>
       <c r="E417" s="48"/>
       <c r="F417" s="48"/>
       <c r="G417" s="48"/>
@@ -13261,8 +13261,8 @@
       <c r="B418" s="49" t="s">
         <v>1850</v>
       </c>
-      <c r="C418" s="55"/>
-      <c r="D418" s="55"/>
+      <c r="C418" s="63"/>
+      <c r="D418" s="63"/>
       <c r="E418" s="48"/>
       <c r="F418" s="48"/>
       <c r="G418" s="48"/>
@@ -13274,10 +13274,10 @@
       <c r="B419" s="49" t="s">
         <v>1851</v>
       </c>
-      <c r="C419" s="54" t="s">
+      <c r="C419" s="62" t="s">
         <v>1852</v>
       </c>
-      <c r="D419" s="54" t="s">
+      <c r="D419" s="62" t="s">
         <v>325</v>
       </c>
       <c r="E419" s="48"/>
@@ -13291,8 +13291,8 @@
       <c r="B420" s="49" t="s">
         <v>1853</v>
       </c>
-      <c r="C420" s="62"/>
-      <c r="D420" s="62"/>
+      <c r="C420" s="64"/>
+      <c r="D420" s="64"/>
       <c r="E420" s="48"/>
       <c r="F420" s="48"/>
       <c r="G420" s="48"/>
@@ -13304,8 +13304,8 @@
       <c r="B421" s="49" t="s">
         <v>1854</v>
       </c>
-      <c r="C421" s="55"/>
-      <c r="D421" s="55"/>
+      <c r="C421" s="63"/>
+      <c r="D421" s="63"/>
       <c r="E421" s="48"/>
       <c r="F421" s="48"/>
       <c r="G421" s="48"/>
@@ -13351,10 +13351,10 @@
       <c r="B424" s="49" t="s">
         <v>1859</v>
       </c>
-      <c r="C424" s="54" t="s">
+      <c r="C424" s="62" t="s">
         <v>1860</v>
       </c>
-      <c r="D424" s="54" t="s">
+      <c r="D424" s="62" t="s">
         <v>327</v>
       </c>
       <c r="E424" s="48"/>
@@ -13368,8 +13368,8 @@
       <c r="B425" s="49" t="s">
         <v>1861</v>
       </c>
-      <c r="C425" s="62"/>
-      <c r="D425" s="62"/>
+      <c r="C425" s="64"/>
+      <c r="D425" s="64"/>
       <c r="E425" s="48"/>
       <c r="F425" s="48"/>
       <c r="G425" s="48"/>
@@ -13381,8 +13381,8 @@
       <c r="B426" s="49" t="s">
         <v>1862</v>
       </c>
-      <c r="C426" s="55"/>
-      <c r="D426" s="55"/>
+      <c r="C426" s="63"/>
+      <c r="D426" s="63"/>
       <c r="E426" s="48"/>
       <c r="F426" s="48"/>
       <c r="G426" s="48"/>
@@ -13450,10 +13450,10 @@
       <c r="B431" s="49" t="s">
         <v>1868</v>
       </c>
-      <c r="C431" s="54" t="s">
+      <c r="C431" s="62" t="s">
         <v>1869</v>
       </c>
-      <c r="D431" s="56" t="s">
+      <c r="D431" s="59" t="s">
         <v>333</v>
       </c>
       <c r="E431" s="48"/>
@@ -13467,8 +13467,8 @@
       <c r="B432" s="49" t="s">
         <v>1870</v>
       </c>
-      <c r="C432" s="62"/>
-      <c r="D432" s="61"/>
+      <c r="C432" s="64"/>
+      <c r="D432" s="60"/>
       <c r="E432" s="48"/>
       <c r="F432" s="48"/>
       <c r="G432" s="48"/>
@@ -13480,8 +13480,8 @@
       <c r="B433" s="49" t="s">
         <v>1871</v>
       </c>
-      <c r="C433" s="62"/>
-      <c r="D433" s="61"/>
+      <c r="C433" s="64"/>
+      <c r="D433" s="60"/>
       <c r="E433" s="48"/>
       <c r="F433" s="48"/>
       <c r="G433" s="48"/>
@@ -13493,19 +13493,19 @@
       <c r="B434" s="49" t="s">
         <v>1872</v>
       </c>
-      <c r="C434" s="55"/>
-      <c r="D434" s="57"/>
+      <c r="C434" s="63"/>
+      <c r="D434" s="61"/>
       <c r="E434" s="48"/>
       <c r="F434" s="48"/>
       <c r="G434" s="48"/>
     </row>
     <row r="435" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A435" s="58" t="s">
+      <c r="A435" s="56" t="s">
         <v>1188</v>
       </c>
-      <c r="B435" s="59"/>
-      <c r="C435" s="59"/>
-      <c r="D435" s="60"/>
+      <c r="B435" s="57"/>
+      <c r="C435" s="57"/>
+      <c r="D435" s="58"/>
       <c r="E435" s="48"/>
       <c r="F435" s="48"/>
       <c r="G435" s="48"/>
@@ -13517,10 +13517,10 @@
       <c r="B436" s="49" t="s">
         <v>1873</v>
       </c>
-      <c r="C436" s="56" t="s">
+      <c r="C436" s="59" t="s">
         <v>1874</v>
       </c>
-      <c r="D436" s="56" t="s">
+      <c r="D436" s="59" t="s">
         <v>1875</v>
       </c>
       <c r="E436" s="48"/>
@@ -13534,8 +13534,8 @@
       <c r="B437" s="49" t="s">
         <v>1876</v>
       </c>
-      <c r="C437" s="57"/>
-      <c r="D437" s="57"/>
+      <c r="C437" s="61"/>
+      <c r="D437" s="61"/>
       <c r="E437" s="48"/>
       <c r="F437" s="48"/>
       <c r="G437" s="48"/>
@@ -13560,10 +13560,10 @@
       <c r="B439" s="49" t="s">
         <v>1878</v>
       </c>
-      <c r="C439" s="56" t="s">
+      <c r="C439" s="59" t="s">
         <v>1879</v>
       </c>
-      <c r="D439" s="56" t="s">
+      <c r="D439" s="59" t="s">
         <v>335</v>
       </c>
       <c r="E439" s="48"/>
@@ -13577,8 +13577,8 @@
       <c r="B440" s="49" t="s">
         <v>1880</v>
       </c>
-      <c r="C440" s="57"/>
-      <c r="D440" s="57"/>
+      <c r="C440" s="61"/>
+      <c r="D440" s="61"/>
       <c r="E440" s="48"/>
       <c r="F440" s="48"/>
       <c r="G440" s="48"/>
@@ -13629,10 +13629,10 @@
       <c r="B444" s="49" t="s">
         <v>1884</v>
       </c>
-      <c r="C444" s="56" t="s">
+      <c r="C444" s="59" t="s">
         <v>1885</v>
       </c>
-      <c r="D444" s="56" t="s">
+      <c r="D444" s="59" t="s">
         <v>339</v>
       </c>
       <c r="E444" s="48"/>
@@ -13646,8 +13646,8 @@
       <c r="B445" s="49" t="s">
         <v>1886</v>
       </c>
-      <c r="C445" s="57"/>
-      <c r="D445" s="57"/>
+      <c r="C445" s="61"/>
+      <c r="D445" s="61"/>
       <c r="E445" s="48"/>
       <c r="F445" s="48"/>
       <c r="G445" s="48"/>
@@ -13685,10 +13685,10 @@
       <c r="B448" s="49" t="s">
         <v>1889</v>
       </c>
-      <c r="C448" s="56" t="s">
+      <c r="C448" s="59" t="s">
         <v>1890</v>
       </c>
-      <c r="D448" s="56" t="s">
+      <c r="D448" s="59" t="s">
         <v>1891</v>
       </c>
       <c r="E448" s="48"/>
@@ -13702,8 +13702,8 @@
       <c r="B449" s="49" t="s">
         <v>1892</v>
       </c>
-      <c r="C449" s="57"/>
-      <c r="D449" s="57"/>
+      <c r="C449" s="61"/>
+      <c r="D449" s="61"/>
       <c r="E449" s="48"/>
       <c r="F449" s="48"/>
       <c r="G449" s="48"/>
@@ -13715,10 +13715,10 @@
       <c r="B450" s="49" t="s">
         <v>1893</v>
       </c>
-      <c r="C450" s="56" t="s">
+      <c r="C450" s="59" t="s">
         <v>1894</v>
       </c>
-      <c r="D450" s="56" t="s">
+      <c r="D450" s="59" t="s">
         <v>342</v>
       </c>
       <c r="E450" s="48"/>
@@ -13732,8 +13732,8 @@
       <c r="B451" s="49" t="s">
         <v>1895</v>
       </c>
-      <c r="C451" s="57"/>
-      <c r="D451" s="57"/>
+      <c r="C451" s="61"/>
+      <c r="D451" s="61"/>
       <c r="E451" s="48"/>
       <c r="F451" s="48"/>
       <c r="G451" s="48"/>
@@ -13745,10 +13745,10 @@
       <c r="B452" s="49" t="s">
         <v>1896</v>
       </c>
-      <c r="C452" s="54" t="s">
+      <c r="C452" s="62" t="s">
         <v>1897</v>
       </c>
-      <c r="D452" s="56" t="s">
+      <c r="D452" s="59" t="s">
         <v>343</v>
       </c>
       <c r="E452" s="48"/>
@@ -13762,8 +13762,8 @@
       <c r="B453" s="49" t="s">
         <v>1898</v>
       </c>
-      <c r="C453" s="55"/>
-      <c r="D453" s="57"/>
+      <c r="C453" s="63"/>
+      <c r="D453" s="61"/>
       <c r="E453" s="48"/>
       <c r="F453" s="48"/>
       <c r="G453" s="48"/>
@@ -13775,10 +13775,10 @@
       <c r="B454" s="49" t="s">
         <v>1899</v>
       </c>
-      <c r="C454" s="54" t="s">
+      <c r="C454" s="62" t="s">
         <v>1900</v>
       </c>
-      <c r="D454" s="56" t="s">
+      <c r="D454" s="59" t="s">
         <v>344</v>
       </c>
       <c r="E454" s="48"/>
@@ -13792,8 +13792,8 @@
       <c r="B455" s="49" t="s">
         <v>1901</v>
       </c>
-      <c r="C455" s="55"/>
-      <c r="D455" s="57"/>
+      <c r="C455" s="63"/>
+      <c r="D455" s="61"/>
       <c r="E455" s="48"/>
       <c r="F455" s="48"/>
       <c r="G455" s="48"/>
@@ -13805,10 +13805,10 @@
       <c r="B456" s="49" t="s">
         <v>1896</v>
       </c>
-      <c r="C456" s="54" t="s">
+      <c r="C456" s="62" t="s">
         <v>1902</v>
       </c>
-      <c r="D456" s="56" t="s">
+      <c r="D456" s="59" t="s">
         <v>345</v>
       </c>
       <c r="E456" s="48"/>
@@ -13822,8 +13822,8 @@
       <c r="B457" s="49" t="s">
         <v>1898</v>
       </c>
-      <c r="C457" s="55"/>
-      <c r="D457" s="57"/>
+      <c r="C457" s="63"/>
+      <c r="D457" s="61"/>
       <c r="E457" s="48"/>
       <c r="F457" s="48"/>
       <c r="G457" s="48"/>
@@ -13835,10 +13835,10 @@
       <c r="B458" s="49" t="s">
         <v>1903</v>
       </c>
-      <c r="C458" s="54" t="s">
+      <c r="C458" s="62" t="s">
         <v>1904</v>
       </c>
-      <c r="D458" s="56" t="s">
+      <c r="D458" s="59" t="s">
         <v>346</v>
       </c>
       <c r="E458" s="48"/>
@@ -13852,8 +13852,8 @@
       <c r="B459" s="49" t="s">
         <v>1905</v>
       </c>
-      <c r="C459" s="55"/>
-      <c r="D459" s="57"/>
+      <c r="C459" s="63"/>
+      <c r="D459" s="61"/>
       <c r="E459" s="48"/>
       <c r="F459" s="48"/>
       <c r="G459" s="48"/>
@@ -14017,10 +14017,10 @@
       <c r="G469" s="48"/>
     </row>
     <row r="470" spans="1:7" ht="15" thickBot="1">
-      <c r="A470" s="56">
+      <c r="A470" s="59">
         <v>668.84</v>
       </c>
-      <c r="B470" s="54" t="s">
+      <c r="B470" s="62" t="s">
         <v>1928</v>
       </c>
       <c r="C470" s="50" t="s">
@@ -14034,8 +14034,8 @@
       <c r="G470" s="48"/>
     </row>
     <row r="471" spans="1:7" ht="15" thickBot="1">
-      <c r="A471" s="61"/>
-      <c r="B471" s="62"/>
+      <c r="A471" s="60"/>
+      <c r="B471" s="64"/>
       <c r="C471" s="50" t="s">
         <v>1930</v>
       </c>
@@ -14047,8 +14047,8 @@
       <c r="G471" s="48"/>
     </row>
     <row r="472" spans="1:7" ht="15" thickBot="1">
-      <c r="A472" s="61"/>
-      <c r="B472" s="62"/>
+      <c r="A472" s="60"/>
+      <c r="B472" s="64"/>
       <c r="C472" s="50" t="s">
         <v>1932</v>
       </c>
@@ -14060,8 +14060,8 @@
       <c r="G472" s="48"/>
     </row>
     <row r="473" spans="1:7" ht="15" thickBot="1">
-      <c r="A473" s="57"/>
-      <c r="B473" s="55"/>
+      <c r="A473" s="61"/>
+      <c r="B473" s="63"/>
       <c r="C473" s="50" t="s">
         <v>1933</v>
       </c>
@@ -14079,10 +14079,10 @@
       <c r="B474" s="50" t="s">
         <v>1838</v>
       </c>
-      <c r="C474" s="54" t="s">
+      <c r="C474" s="62" t="s">
         <v>1935</v>
       </c>
-      <c r="D474" s="56" t="s">
+      <c r="D474" s="59" t="s">
         <v>358</v>
       </c>
       <c r="E474" s="48"/>
@@ -14096,8 +14096,8 @@
       <c r="B475" s="50" t="s">
         <v>1928</v>
       </c>
-      <c r="C475" s="55"/>
-      <c r="D475" s="57"/>
+      <c r="C475" s="63"/>
+      <c r="D475" s="61"/>
       <c r="E475" s="48"/>
       <c r="F475" s="48"/>
       <c r="G475" s="48"/>
@@ -14109,10 +14109,10 @@
       <c r="B476" s="50" t="s">
         <v>1838</v>
       </c>
-      <c r="C476" s="54" t="s">
+      <c r="C476" s="62" t="s">
         <v>1936</v>
       </c>
-      <c r="D476" s="56" t="s">
+      <c r="D476" s="59" t="s">
         <v>359</v>
       </c>
       <c r="E476" s="48"/>
@@ -14126,8 +14126,8 @@
       <c r="B477" s="50" t="s">
         <v>1928</v>
       </c>
-      <c r="C477" s="55"/>
-      <c r="D477" s="57"/>
+      <c r="C477" s="63"/>
+      <c r="D477" s="61"/>
       <c r="E477" s="48"/>
       <c r="F477" s="48"/>
       <c r="G477" s="48"/>
@@ -14152,10 +14152,10 @@
       <c r="B479" s="50" t="s">
         <v>1938</v>
       </c>
-      <c r="C479" s="54" t="s">
+      <c r="C479" s="62" t="s">
         <v>1939</v>
       </c>
-      <c r="D479" s="56" t="s">
+      <c r="D479" s="59" t="s">
         <v>361</v>
       </c>
       <c r="E479" s="48"/>
@@ -14169,8 +14169,8 @@
       <c r="B480" s="50" t="s">
         <v>1940</v>
       </c>
-      <c r="C480" s="55"/>
-      <c r="D480" s="57"/>
+      <c r="C480" s="63"/>
+      <c r="D480" s="61"/>
       <c r="E480" s="48"/>
       <c r="F480" s="48"/>
       <c r="G480" s="48"/>
@@ -14182,10 +14182,10 @@
       <c r="B481" s="50" t="s">
         <v>1941</v>
       </c>
-      <c r="C481" s="54" t="s">
+      <c r="C481" s="62" t="s">
         <v>1942</v>
       </c>
-      <c r="D481" s="56" t="s">
+      <c r="D481" s="59" t="s">
         <v>1943</v>
       </c>
       <c r="E481" s="48"/>
@@ -14199,8 +14199,8 @@
       <c r="B482" s="50" t="s">
         <v>1944</v>
       </c>
-      <c r="C482" s="55"/>
-      <c r="D482" s="57"/>
+      <c r="C482" s="63"/>
+      <c r="D482" s="61"/>
       <c r="E482" s="48"/>
       <c r="F482" s="48"/>
       <c r="G482" s="48"/>
@@ -14229,10 +14229,10 @@
       <c r="B484" s="49" t="s">
         <v>1947</v>
       </c>
-      <c r="C484" s="54" t="s">
+      <c r="C484" s="62" t="s">
         <v>1948</v>
       </c>
-      <c r="D484" s="56" t="s">
+      <c r="D484" s="59" t="s">
         <v>362</v>
       </c>
       <c r="E484" s="48"/>
@@ -14246,8 +14246,8 @@
       <c r="B485" s="49" t="s">
         <v>1949</v>
       </c>
-      <c r="C485" s="55"/>
-      <c r="D485" s="57"/>
+      <c r="C485" s="63"/>
+      <c r="D485" s="61"/>
       <c r="E485" s="48"/>
       <c r="F485" s="48"/>
       <c r="G485" s="48"/>
@@ -14259,10 +14259,10 @@
       <c r="B486" s="49" t="s">
         <v>1950</v>
       </c>
-      <c r="C486" s="54" t="s">
+      <c r="C486" s="62" t="s">
         <v>1951</v>
       </c>
-      <c r="D486" s="56" t="s">
+      <c r="D486" s="59" t="s">
         <v>363</v>
       </c>
       <c r="E486" s="48"/>
@@ -14276,8 +14276,8 @@
       <c r="B487" s="49" t="s">
         <v>1952</v>
       </c>
-      <c r="C487" s="55"/>
-      <c r="D487" s="57"/>
+      <c r="C487" s="63"/>
+      <c r="D487" s="61"/>
       <c r="E487" s="48"/>
       <c r="F487" s="48"/>
       <c r="G487" s="48"/>
@@ -14289,10 +14289,10 @@
       <c r="B488" s="49" t="s">
         <v>1953</v>
       </c>
-      <c r="C488" s="54" t="s">
+      <c r="C488" s="62" t="s">
         <v>1954</v>
       </c>
-      <c r="D488" s="56" t="s">
+      <c r="D488" s="59" t="s">
         <v>364</v>
       </c>
       <c r="E488" s="48"/>
@@ -14306,8 +14306,8 @@
       <c r="B489" s="49" t="s">
         <v>1955</v>
       </c>
-      <c r="C489" s="55"/>
-      <c r="D489" s="57"/>
+      <c r="C489" s="63"/>
+      <c r="D489" s="61"/>
       <c r="E489" s="48"/>
       <c r="F489" s="48"/>
       <c r="G489" s="48"/>
@@ -14332,10 +14332,10 @@
       <c r="B491" s="49" t="s">
         <v>1957</v>
       </c>
-      <c r="C491" s="54" t="s">
+      <c r="C491" s="62" t="s">
         <v>1958</v>
       </c>
-      <c r="D491" s="56" t="s">
+      <c r="D491" s="59" t="s">
         <v>366</v>
       </c>
       <c r="E491" s="48"/>
@@ -14349,8 +14349,8 @@
       <c r="B492" s="49" t="s">
         <v>1959</v>
       </c>
-      <c r="C492" s="55"/>
-      <c r="D492" s="57"/>
+      <c r="C492" s="63"/>
+      <c r="D492" s="61"/>
       <c r="E492" s="48"/>
       <c r="F492" s="48"/>
       <c r="G492" s="48"/>
@@ -14498,10 +14498,10 @@
       <c r="B501" s="49" t="s">
         <v>1979</v>
       </c>
-      <c r="C501" s="54" t="s">
+      <c r="C501" s="62" t="s">
         <v>1980</v>
       </c>
-      <c r="D501" s="56" t="s">
+      <c r="D501" s="59" t="s">
         <v>374</v>
       </c>
       <c r="E501" s="48"/>
@@ -14515,8 +14515,8 @@
       <c r="B502" s="49" t="s">
         <v>1981</v>
       </c>
-      <c r="C502" s="55"/>
-      <c r="D502" s="57"/>
+      <c r="C502" s="63"/>
+      <c r="D502" s="61"/>
       <c r="E502" s="48"/>
       <c r="F502" s="48"/>
       <c r="G502" s="48"/>
@@ -14545,10 +14545,10 @@
       <c r="B504" s="49" t="s">
         <v>1984</v>
       </c>
-      <c r="C504" s="54" t="s">
+      <c r="C504" s="62" t="s">
         <v>1985</v>
       </c>
-      <c r="D504" s="56" t="s">
+      <c r="D504" s="59" t="s">
         <v>376</v>
       </c>
       <c r="E504" s="48"/>
@@ -14562,8 +14562,8 @@
       <c r="B505" s="49" t="s">
         <v>1986</v>
       </c>
-      <c r="C505" s="55"/>
-      <c r="D505" s="57"/>
+      <c r="C505" s="63"/>
+      <c r="D505" s="61"/>
       <c r="E505" s="48"/>
       <c r="F505" s="48"/>
       <c r="G505" s="48"/>
@@ -14575,10 +14575,10 @@
       <c r="B506" s="49" t="s">
         <v>1987</v>
       </c>
-      <c r="C506" s="54" t="s">
+      <c r="C506" s="62" t="s">
         <v>1988</v>
       </c>
-      <c r="D506" s="56" t="s">
+      <c r="D506" s="59" t="s">
         <v>377</v>
       </c>
       <c r="E506" s="48"/>
@@ -14592,8 +14592,8 @@
       <c r="B507" s="49" t="s">
         <v>1989</v>
       </c>
-      <c r="C507" s="55"/>
-      <c r="D507" s="57"/>
+      <c r="C507" s="63"/>
+      <c r="D507" s="61"/>
       <c r="E507" s="48"/>
       <c r="F507" s="48"/>
       <c r="G507" s="48"/>
@@ -14612,12 +14612,12 @@
       <c r="G508" s="48"/>
     </row>
     <row r="509" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A509" s="58" t="s">
+      <c r="A509" s="56" t="s">
         <v>1189</v>
       </c>
-      <c r="B509" s="59"/>
-      <c r="C509" s="59"/>
-      <c r="D509" s="60"/>
+      <c r="B509" s="57"/>
+      <c r="C509" s="57"/>
+      <c r="D509" s="58"/>
       <c r="E509" s="48"/>
       <c r="F509" s="48"/>
       <c r="G509" s="48"/>
@@ -15081,13 +15081,13 @@
     <row r="542" spans="1:7" ht="15.75" thickBot="1">
       <c r="A542" s="51"/>
       <c r="B542" s="51"/>
-      <c r="C542" s="58" t="s">
+      <c r="C542" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D542" s="59"/>
-      <c r="E542" s="59"/>
-      <c r="F542" s="59"/>
-      <c r="G542" s="60"/>
+      <c r="D542" s="57"/>
+      <c r="E542" s="57"/>
+      <c r="F542" s="57"/>
+      <c r="G542" s="58"/>
     </row>
     <row r="543" spans="1:7" ht="15.75" thickBot="1">
       <c r="A543" s="51"/>
@@ -15110,57 +15110,122 @@
     <row r="545" spans="1:7" ht="15.75" thickBot="1">
       <c r="A545" s="51"/>
       <c r="B545" s="51"/>
-      <c r="C545" s="58" t="s">
+      <c r="C545" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D545" s="60"/>
+      <c r="D545" s="58"/>
       <c r="E545" s="48"/>
       <c r="F545" s="48"/>
       <c r="G545" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A156:A164"/>
-    <mergeCell ref="B156:B164"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="C506:C507"/>
+    <mergeCell ref="D506:D507"/>
+    <mergeCell ref="A509:D509"/>
+    <mergeCell ref="C542:G542"/>
+    <mergeCell ref="C545:D545"/>
+    <mergeCell ref="C491:C492"/>
+    <mergeCell ref="D491:D492"/>
+    <mergeCell ref="C501:C502"/>
+    <mergeCell ref="D501:D502"/>
+    <mergeCell ref="C504:C505"/>
+    <mergeCell ref="D504:D505"/>
+    <mergeCell ref="C484:C485"/>
+    <mergeCell ref="D484:D485"/>
+    <mergeCell ref="C486:C487"/>
+    <mergeCell ref="D486:D487"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="D488:D489"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="C479:C480"/>
+    <mergeCell ref="D479:D480"/>
+    <mergeCell ref="C481:C482"/>
+    <mergeCell ref="D481:D482"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="C474:C475"/>
+    <mergeCell ref="D474:D475"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="D452:D453"/>
+    <mergeCell ref="C454:C455"/>
+    <mergeCell ref="D454:D455"/>
+    <mergeCell ref="C456:C457"/>
+    <mergeCell ref="D456:D457"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="D444:D445"/>
+    <mergeCell ref="C448:C449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="D450:D451"/>
+    <mergeCell ref="A435:D435"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="D436:D437"/>
+    <mergeCell ref="C439:C440"/>
+    <mergeCell ref="D439:D440"/>
+    <mergeCell ref="C419:C421"/>
+    <mergeCell ref="D419:D421"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C431:C434"/>
+    <mergeCell ref="D431:D434"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="D411:D412"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="C416:C418"/>
+    <mergeCell ref="D416:D418"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="D405:D406"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="D407:D408"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="D409:D410"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="D399:D400"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="D401:D402"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="D395:D396"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="D383:D384"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C375:C377"/>
+    <mergeCell ref="D375:D377"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="D381:D382"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="D365:D366"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="C369:C373"/>
+    <mergeCell ref="D369:D373"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="D361:D362"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="D363:D364"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="D350:D351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="D352:D353"/>
+    <mergeCell ref="C354:C355"/>
+    <mergeCell ref="D354:D355"/>
     <mergeCell ref="C328:C329"/>
     <mergeCell ref="D328:D329"/>
     <mergeCell ref="C346:C347"/>
@@ -15173,112 +15238,47 @@
     <mergeCell ref="D316:D317"/>
     <mergeCell ref="C320:C321"/>
     <mergeCell ref="D320:D321"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="D361:D362"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="D363:D364"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="D350:D351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="D352:D353"/>
-    <mergeCell ref="C354:C355"/>
-    <mergeCell ref="D354:D355"/>
-    <mergeCell ref="C375:C377"/>
-    <mergeCell ref="D375:D377"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="D379:D380"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="D381:D382"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="D365:D366"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="C369:C373"/>
-    <mergeCell ref="D369:D373"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="D395:D396"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="D383:D384"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="D405:D406"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="D407:D408"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="D409:D410"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="D399:D400"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="D401:D402"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="C419:C421"/>
-    <mergeCell ref="D419:D421"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C431:C434"/>
-    <mergeCell ref="D431:D434"/>
-    <mergeCell ref="C411:C412"/>
-    <mergeCell ref="D411:D412"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="D413:D414"/>
-    <mergeCell ref="C416:C418"/>
-    <mergeCell ref="D416:D418"/>
-    <mergeCell ref="C444:C445"/>
-    <mergeCell ref="D444:D445"/>
-    <mergeCell ref="C448:C449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="D450:D451"/>
-    <mergeCell ref="A435:D435"/>
-    <mergeCell ref="C436:C437"/>
-    <mergeCell ref="D436:D437"/>
-    <mergeCell ref="C439:C440"/>
-    <mergeCell ref="D439:D440"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="C474:C475"/>
-    <mergeCell ref="D474:D475"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="D452:D453"/>
-    <mergeCell ref="C454:C455"/>
-    <mergeCell ref="D454:D455"/>
-    <mergeCell ref="C456:C457"/>
-    <mergeCell ref="D456:D457"/>
-    <mergeCell ref="C484:C485"/>
-    <mergeCell ref="D484:D485"/>
-    <mergeCell ref="C486:C487"/>
-    <mergeCell ref="D486:D487"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="D488:D489"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="C479:C480"/>
-    <mergeCell ref="D479:D480"/>
-    <mergeCell ref="C481:C482"/>
-    <mergeCell ref="D481:D482"/>
-    <mergeCell ref="C506:C507"/>
-    <mergeCell ref="D506:D507"/>
-    <mergeCell ref="A509:D509"/>
-    <mergeCell ref="C542:G542"/>
-    <mergeCell ref="C545:D545"/>
-    <mergeCell ref="C491:C492"/>
-    <mergeCell ref="D491:D492"/>
-    <mergeCell ref="C501:C502"/>
-    <mergeCell ref="D501:D502"/>
-    <mergeCell ref="C504:C505"/>
-    <mergeCell ref="D504:D505"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A156:A164"/>
+    <mergeCell ref="B156:B164"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16230,12 +16230,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>826</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="8" t="s">
@@ -16870,12 +16870,12 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="66" t="s">
         <v>1180</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" s="6"/>
@@ -17206,12 +17206,12 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="66" t="s">
         <v>1010</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
     </row>
     <row r="128" spans="1:4">
       <c r="C128" s="6"/>
@@ -17865,12 +17865,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>1182</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="C3" s="43" t="s">
@@ -17953,12 +17953,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="68" t="s">
         <v>1181</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="30" t="s">
@@ -18049,12 +18049,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="68" t="s">
         <v>1183</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" s="42" t="s">
